--- a/biology/Biologie cellulaire et moléculaire/ATF4/ATF4.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/ATF4/ATF4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ATF4 (pour « Activating transcription factor 4 ») est un facteur de transcription de la famille des ATF dont le gène est ATF4 situé sur le chromosome 22 humain.
 </t>
@@ -511,11 +523,13 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ATF4 intervient pour la transcription de plusieurs gènes jouant sur le métabolisme cellulaire. Son activité favorise la prolifération tumorale[5] ainsi que la résistance aux traitements anticancéreux[6] comme pour le cisplatine[7]. 
-Il intervient également dans l'embryogenèse[8].
-Au cours d'un stress, en particulier de nature hypoxique, son activité est fortement diminuée[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ATF4 intervient pour la transcription de plusieurs gènes jouant sur le métabolisme cellulaire. Son activité favorise la prolifération tumorale ainsi que la résistance aux traitements anticancéreux comme pour le cisplatine. 
+Il intervient également dans l'embryogenèse.
+Au cours d'un stress, en particulier de nature hypoxique, son activité est fortement diminuée.
 </t>
         </is>
       </c>
